--- a/Semester_3/Publikationsprojekt/TDE_Problemtypologie_Publikationsprojekt.xlsx
+++ b/Semester_3/Publikationsprojekt/TDE_Problemtypologie_Publikationsprojekt.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/357609b57e560daa/Desktop/Repositories/Studium/Semester_3/Publikationsprojekt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="13_ncr:1_{CDE965C2-832E-4F8B-8631-22DC7706D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9033A373-F3B0-46A3-9187-3936252C5907}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{CDE965C2-832E-4F8B-8631-22DC7706D039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C2AEF26D-9BE3-4336-8835-122CA0FA2D87}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="3345" windowWidth="25440" windowHeight="15270" xr2:uid="{8CF0B866-91C7-4F51-924A-B35B520145F4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="94">
   <si>
     <t>Kategorie 
 (Bitte Subkategorien benennen!)</t>
@@ -57,6 +57,18 @@
     <t>FA</t>
   </si>
   <si>
+    <t>"[…]auf dem Gerätebildschirm eine Grafik zum Ändern angezeigt werden."</t>
+  </si>
+  <si>
+    <t>passende Grafik hinzufügen</t>
+  </si>
+  <si>
+    <t>Batterie nicht abnehmbar; Hinweise was zu tun ist fehlen</t>
+  </si>
+  <si>
+    <t>Entsorgungs- oder Reparaturhinweise</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sicherheit und Rechtskonformität  </t>
   </si>
   <si>
@@ -66,19 +78,28 @@
     <t>vollständiges Kapitel Wartung des Gerätes sind eigentlich Warnhinweise</t>
   </si>
   <si>
+    <t>Warnhinweise korrekt kennzeichnen und an den Anfang stellen</t>
+  </si>
+  <si>
     <t>fehlen Hinweise auf das Risiko eines Stromschlags</t>
   </si>
   <si>
+    <t>Hinweise auf Stromschlag hinzufügen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Präzision im Sprachgebrauch  </t>
-  </si>
-  <si>
-    <t>SB</t>
   </si>
   <si>
     <t>Gerät zu hohen (über + 50 ° C), niedrigen (unter -10 ° C) 
 Temperaturen oder Hitze nicht aussetzen</t>
   </si>
   <si>
+    <t>Grammatikalisch korrekt aufbauen</t>
+  </si>
+  <si>
+    <t>SB</t>
+  </si>
+  <si>
     <t xml:space="preserve"> Kein 
 Gerät zu Reinigungsmitteln, Ätzmitteln oder anderen Chemikalien aussetzen.</t>
   </si>
@@ -92,9 +113,15 @@
     <t>das Wort „möglicherweise“ verursacht unsicherheit</t>
   </si>
   <si>
+    <t>"möglicherweise" vermeiden</t>
+  </si>
+  <si>
     <t>Schriftkegelgröße Taste.</t>
   </si>
   <si>
+    <t>keine unbekannten Worte oder Wortneuschöpfungen verwenden</t>
+  </si>
+  <si>
     <t xml:space="preserve">Eindeutige Referenz </t>
   </si>
   <si>
@@ -104,6 +131,9 @@
     <t>Gerät einschalten - Power-Taste 5 Sekunden lang drücken</t>
   </si>
   <si>
+    <t>Genaue Referenz zur Powertaste schaffen</t>
+  </si>
+  <si>
     <t>Ref, TRef</t>
   </si>
   <si>
@@ -113,6 +143,9 @@
     <t>fehlt eindeutige Erklärung von Menütaste / gibt keine konsistente Seiten- oder Kapitelverweisstruktur</t>
   </si>
   <si>
+    <t>Menütaste konkret beschreiben</t>
+  </si>
+  <si>
     <t>Tref</t>
   </si>
   <si>
@@ -131,9 +164,15 @@
     <t xml:space="preserve">OK-Taste hat mehrere Funktionen und wird nicht eindeutig erklärt </t>
   </si>
   <si>
+    <t>Taste vollständig erklären</t>
+  </si>
+  <si>
     <t>Bildschirmfarben invertieren wurde erwähnt aber nicht erklärt wofür man das verwenden kann (fehlt klare Beschreibung)</t>
   </si>
   <si>
+    <t>Klare Beschreibung hinzufügen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Klarer und konsistenter Bildaufbau  </t>
   </si>
   <si>
@@ -146,21 +185,33 @@
     <t>Bildnummerierung hat verschiedene Größen</t>
   </si>
   <si>
+    <t>einheitliche Größe verwenden</t>
+  </si>
+  <si>
     <t>BO</t>
   </si>
   <si>
     <t>Bilder haben verschiedene Auflösungen</t>
   </si>
   <si>
+    <t>einheitliche Auflösung, oder sklalierbare Formate verwenden</t>
+  </si>
+  <si>
     <t>Tastenbeschreibung unübersichtlich</t>
   </si>
   <si>
+    <t>klarer und sichtbare Bilder und Beschreibungen verwenden</t>
+  </si>
+  <si>
     <t>1,2,3, 4</t>
   </si>
   <si>
     <t>ungenügend und unklarer Bilder</t>
   </si>
   <si>
+    <t>höhere Auflösung, oder sklalierbare Formate verwenden</t>
+  </si>
+  <si>
     <t xml:space="preserve">Klare Anordnung und Struktur  </t>
   </si>
   <si>
@@ -170,12 +221,18 @@
     <t>Kapitel Laden vor Gerätebeschreibung</t>
   </si>
   <si>
+    <t>sinnvolle Kapitelstruktur wählen</t>
+  </si>
+  <si>
     <t>Sequ</t>
   </si>
   <si>
     <t>Bild passt nicht zu Text im Kapitel Startbildschirm</t>
   </si>
   <si>
+    <t>passende Bilder wählen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Funktionale Gestaltung  </t>
   </si>
   <si>
@@ -218,6 +275,9 @@
     <t>Blocksatz und lange Texte sind nicht lernfördernd</t>
   </si>
   <si>
+    <t>passende Textstruktur wählen</t>
+  </si>
+  <si>
     <t>fehlen praxisnahe Beispiele über die Funktionen des Geräts</t>
   </si>
   <si>
@@ -233,15 +293,24 @@
     <t>Link zu Beginn; Mediale Einbettung ungenügend</t>
   </si>
   <si>
+    <t>Link zu anderssprachigen Anleitung zu Beginn einbetten</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
     <t>keine Hinweise, wie der Benutzer schnell zu den Hauptfunktionen gelangt</t>
   </si>
   <si>
+    <t>Inhaltsverzeichnis hinzufügen</t>
+  </si>
+  <si>
     <t>keinen Zugang zum digitalen Support</t>
   </si>
   <si>
+    <t>Link oder Qr-Code zum support hinzufügen</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ökonomische Produktion  </t>
   </si>
   <si>
@@ -252,75 +321,6 @@
   </si>
   <si>
     <t>Richtlinien beachten und folgen</t>
-  </si>
-  <si>
-    <t>"[…]auf dem Gerätebildschirm eine Grafik zum Ändern angezeigt werden."</t>
-  </si>
-  <si>
-    <t>Batterie nicht abnehmbar; Hinweise was zu tun ist fehlen</t>
-  </si>
-  <si>
-    <t>passende Grafik hinzufügen</t>
-  </si>
-  <si>
-    <t>Entsorgungs- oder Reparaturhinweise</t>
-  </si>
-  <si>
-    <t>Warnhinweise korrekt kennzeichnen und an den Anfang stellen</t>
-  </si>
-  <si>
-    <t>Hinweise auf Stromschlag hinzufügen</t>
-  </si>
-  <si>
-    <t>Grammatikalisch korrekt aufbauen</t>
-  </si>
-  <si>
-    <t>"möglicherweise" vermeiden</t>
-  </si>
-  <si>
-    <t>keine unbekannten Worte oder Wortneuschöpfungen verwenden</t>
-  </si>
-  <si>
-    <t>Genaue Referenz zur Powertaste schaffen</t>
-  </si>
-  <si>
-    <t>Menütaste konkret beschreiben</t>
-  </si>
-  <si>
-    <t>Taste vollständig erklären</t>
-  </si>
-  <si>
-    <t>Klare Beschreibung hinzufügen</t>
-  </si>
-  <si>
-    <t>einheitliche Größe verwenden</t>
-  </si>
-  <si>
-    <t>einheitliche Auflösung, oder sklalierbare Formate verwenden</t>
-  </si>
-  <si>
-    <t>klarer und sichtbare Bilder und Beschreibungen verwenden</t>
-  </si>
-  <si>
-    <t>höhere Auflösung, oder sklalierbare Formate verwenden</t>
-  </si>
-  <si>
-    <t>sinnvolle Kapitelstruktur wählen</t>
-  </si>
-  <si>
-    <t>passende Bilder wählen</t>
-  </si>
-  <si>
-    <t>passende Textstruktur wählen</t>
-  </si>
-  <si>
-    <t>Link zu anderssprachigen Anleitung zu Beginn einbetten</t>
-  </si>
-  <si>
-    <t>Inhaltsverzeichnis hinzufügen</t>
-  </si>
-  <si>
-    <t>Link oder Qr-Code zum support hinzufügen</t>
   </si>
 </sst>
 </file>
@@ -330,7 +330,7 @@
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -450,9 +450,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -490,7 +490,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -596,7 +596,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -738,7 +738,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,18 +749,18 @@
   <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <cols>
     <col min="1" max="1" width="38" customWidth="1"/>
-    <col min="2" max="2" width="7.83984375" customWidth="1"/>
-    <col min="3" max="3" width="106.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="61.578125" customWidth="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1"/>
+    <col min="3" max="3" width="106.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="3" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:4" s="3" customFormat="1" ht="31.15">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -774,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -782,7 +782,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -790,13 +790,13 @@
         <v>1</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>71</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
@@ -804,481 +804,478 @@
         <v>1</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>72</v>
+        <v>8</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="5"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4">
       <c r="A6" s="5"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4">
       <c r="A7" s="9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
+    <row r="13" spans="1:4" ht="28.9">
       <c r="B13">
         <v>1</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="28.9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D15" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" ht="15" customHeight="1">
       <c r="A19" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B19" s="7">
         <v>2</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="15" customHeight="1">
       <c r="A20" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="15" customHeight="1">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="23" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="15" customHeight="1"/>
+    <row r="23" spans="1:4" ht="15" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" ht="15" customHeight="1">
       <c r="A24" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="D24" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="15" customHeight="1">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="B25">
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="15" customHeight="1"/>
+    <row r="27" spans="1:4" ht="15" customHeight="1"/>
+    <row r="28" spans="1:4" ht="15" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4">
       <c r="A29" s="5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="15" customHeight="1">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B30">
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="D30" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="15" customHeight="1">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="C31" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D31" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="15" customHeight="1">
       <c r="A32" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="15" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" ht="15" customHeight="1">
       <c r="A34" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B34">
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="D34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="15" customHeight="1">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="B35">
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" customHeight="1">
       <c r="B36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="38" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" ht="15" customHeight="1"/>
+    <row r="38" spans="1:4" ht="15" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" ht="15" customHeight="1">
       <c r="A39" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B39" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="D39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="15" customHeight="1">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="B40">
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>50</v>
+        <v>69</v>
       </c>
       <c r="D40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" customHeight="1">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B41">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="D41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="43" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="15" customHeight="1"/>
+    <row r="43" spans="1:4" ht="15" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" ht="15" customHeight="1">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C44" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="D44" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15" customHeight="1">
       <c r="A45" t="s">
-        <v>56</v>
+        <v>75</v>
       </c>
       <c r="B45" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="C45" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="47" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="15" customHeight="1"/>
+    <row r="47" spans="1:4" ht="15" customHeight="1"/>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B49">
         <v>1</v>
       </c>
       <c r="C49" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B50">
         <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="B51">
         <v>6</v>
       </c>
       <c r="C51" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="D51" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>67</v>
+        <v>90</v>
       </c>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="B54" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="C54" t="s">
-        <v>69</v>
+        <v>92</v>
       </c>
       <c r="D54" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
